--- a/examples/6pm/data.xlsx
+++ b/examples/6pm/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>下单日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,26 @@
   </si>
   <si>
     <t>型号3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku12312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku4323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -562,7 +582,7 @@
     <col min="12" max="12" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -605,8 +625,11 @@
       <c r="N1" t="s">
         <v>19</v>
       </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -649,8 +672,11 @@
       <c r="N2" t="s">
         <v>31</v>
       </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G3" t="s">
         <v>41</v>
       </c>
@@ -672,8 +698,11 @@
       <c r="N3" t="s">
         <v>34</v>
       </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -716,8 +745,11 @@
       <c r="N4" t="s">
         <v>44</v>
       </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="G5" t="s">
         <v>42</v>
       </c>
@@ -738,6 +770,9 @@
       </c>
       <c r="N5" t="s">
         <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/examples/6pm/data.xlsx
+++ b/examples/6pm/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>下单日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>sku7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用卡类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万事达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,9 +592,10 @@
     <col min="10" max="10" width="14.875" customWidth="1"/>
     <col min="11" max="11" width="21.75" customWidth="1"/>
     <col min="12" max="12" width="22.5" customWidth="1"/>
+    <col min="16" max="16" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -628,8 +641,11 @@
       <c r="O1" t="s">
         <v>45</v>
       </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -675,8 +691,11 @@
       <c r="O2" t="s">
         <v>46</v>
       </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="G3" t="s">
         <v>41</v>
       </c>
@@ -702,7 +721,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -748,8 +767,11 @@
       <c r="O4" t="s">
         <v>48</v>
       </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="G5" t="s">
         <v>42</v>
       </c>

--- a/examples/6pm/data.xlsx
+++ b/examples/6pm/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>下单日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,18 +58,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是下单日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这里是信用卡号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这里是发货日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这里是品名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分单2的下单日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分单2的交易单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分单2的发货日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同一个分单号的第二个物名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,6 +211,10 @@
   </si>
   <si>
     <t>Visa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若不是日期格式则保持原状</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,8 +258,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -575,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,48 +616,48 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1">
+        <v>42009.751388888886</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
       <c r="I2">
         <v>21.45</v>
@@ -677,30 +666,30 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="G3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <v>54.06</v>
@@ -709,42 +698,42 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42009.751388888886</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
+      <c r="F4" s="1">
+        <v>42009.751388888886</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I4">
         <v>22.34</v>
@@ -753,30 +742,30 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
         <v>44</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>48</v>
-      </c>
-      <c r="P4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="G5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I5">
         <v>22.34</v>
@@ -785,16 +774,16 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
         <v>39</v>
       </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/examples/6pm/data.xlsx
+++ b/examples/6pm/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>下单日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>若不是日期格式则保持原状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -584,7 +596,7 @@
     <col min="16" max="16" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -633,8 +645,11 @@
       <c r="P1" t="s">
         <v>46</v>
       </c>
+      <c r="Q1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -683,8 +698,11 @@
       <c r="P2" t="s">
         <v>47</v>
       </c>
+      <c r="Q2" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G3" t="s">
         <v>37</v>
       </c>
@@ -710,7 +728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -759,8 +777,11 @@
       <c r="P4" t="s">
         <v>48</v>
       </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="G5" t="s">
         <v>38</v>
       </c>

--- a/examples/6pm/data.xlsx
+++ b/examples/6pm/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>下单日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,10 +219,6 @@
   </si>
   <si>
     <t>翻译为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -576,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -776,9 +772,6 @@
       </c>
       <c r="P4" t="s">
         <v>48</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
